--- a/REGULAR/CHO/ALCAZAR, ZENAIDA.xlsx
+++ b/REGULAR/CHO/ALCAZAR, ZENAIDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\CHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A130277-C895-41E5-A6E3-0EF7E80EB7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C80071-4DA4-402D-B5D6-071BE8C83E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -315,6 +307,12 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>9/19,20</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1004,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K150" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1335,12 +1333,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K150"/>
+  <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A87" activePane="bottomLeft"/>
+      <pane ySplit="3888" topLeftCell="A90" activePane="bottomLeft"/>
       <selection activeCell="L1" sqref="L1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,7 +1497,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.579000000000008</v>
+        <v>68.829000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1509,7 +1507,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>67</v>
+        <v>66.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3323,28 +3321,30 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A94" s="40"/>
+      <c r="B94" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H94" s="39"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39">
+        <v>2</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="49" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -3364,7 +3364,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -3383,15 +3383,19 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>44896</v>
+      </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -3399,7 +3403,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="48" t="s">
+        <v>91</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3415,15 +3421,19 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>44927</v>
+      </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
@@ -4231,20 +4241,36 @@
       <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="41"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="42"/>
-      <c r="D150" s="43"/>
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H150" s="43"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
       <c r="I150" s="9"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="15"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="41"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="43"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
